--- a/Документация/Расчёт Профиля МНТ.xlsx
+++ b/Документация/Расчёт Профиля МНТ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\askar\Desktop\x\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\askar\dev\test\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2B24BA-AC99-4E5A-9562-834142F04484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43F7F21-38AE-4BD8-9AC4-2E5F075E5BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="765" windowWidth="19440" windowHeight="15150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="3885" windowWidth="14400" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="4" r:id="rId1"/>
@@ -1908,7 +1908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A73EA1-9683-764A-B533-D46D1B03E170}">
   <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -3666,7 +3666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D48B1FB-7751-441D-9516-C0058F4407BB}">
   <dimension ref="C9:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E26" sqref="E26:I34"/>
     </sheetView>
   </sheetViews>
